--- a/data/historical_estimates/raw/Carretta_Chivers_2004.xlsx
+++ b/data/historical_estimates/raw/Carretta_Chivers_2004.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43EB98E-9DEC-E64B-9A20-9ED3C5899D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5EC60-9686-7948-8593-FB76FF2EFC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="7800" yWindow="9460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimates" sheetId="1" r:id="rId1"/>
+    <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>reference</t>
   </si>
@@ -105,6 +106,9 @@
   </si>
   <si>
     <t>Carretta &amp; Chivers 2004</t>
+  </si>
+  <si>
+    <t>n_days</t>
   </si>
 </sst>
 </file>
@@ -470,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5835606F-17C4-734B-AF17-790539259DAA}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
@@ -960,4 +964,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A152B-D61C-9A43-B249-F72811A599C5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2">
+        <v>1965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/historical_estimates/raw/Carretta_Chivers_2004.xlsx
+++ b/data/historical_estimates/raw/Carretta_Chivers_2004.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5EC60-9686-7948-8593-FB76FF2EFC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E14B58-695B-7C49-96E1-A5088837513E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="9460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="7800" yWindow="9440" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
     <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>reference</t>
   </si>
@@ -108,7 +97,16 @@
     <t>Carretta &amp; Chivers 2004</t>
   </si>
   <si>
-    <t>n_days</t>
+    <t>nvesseldays</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Jan-Jun only</t>
+  </si>
+  <si>
+    <t>Results-set gillnet fishery</t>
   </si>
 </sst>
 </file>
@@ -475,7 +473,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -968,28 +966,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4A152B-D61C-9A43-B249-F72811A599C5}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2003</v>
-      </c>
-      <c r="B2">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>2003</v>
+      </c>
+      <c r="D2">
         <v>1965</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
